--- a/profile_data.xlsx
+++ b/profile_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>player</t>
   </si>
@@ -24,16 +24,16 @@
     <t>Rafael Nadal</t>
   </si>
   <si>
-    <t>Hard Court (Last 50)</t>
-  </si>
-  <si>
-    <t>Clay Court (Last 50)</t>
-  </si>
-  <si>
-    <t>Grass (Last 50)</t>
-  </si>
-  <si>
-    <t>In Home Country (Last 50)</t>
+    <t>42/48</t>
+  </si>
+  <si>
+    <t>26/29</t>
+  </si>
+  <si>
+    <t>Hard Court (Past year)</t>
+  </si>
+  <si>
+    <t>Clay Court (Past year)</t>
   </si>
   <si>
     <t>vs Top 10 Rank (Last 50)</t>
@@ -42,15 +42,9 @@
     <t>vs Top 10 Rank (Last 10)</t>
   </si>
   <si>
-    <t>vs Top 20 Rank (Last 50)</t>
-  </si>
-  <si>
     <t>vs Left Handers (Last 10)</t>
   </si>
   <si>
-    <t>vs Big Servers (Last 50)</t>
-  </si>
-  <si>
     <t>Service Points Won (Past year)</t>
   </si>
   <si>
@@ -82,6 +76,90 @@
   </si>
   <si>
     <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>vs Top 20 Rank (Last 10)</t>
+  </si>
+  <si>
+    <t>In Home Country (Last 10)</t>
+  </si>
+  <si>
+    <t>vs Big Servers (Last 10)</t>
+  </si>
+  <si>
+    <t>Grass (Past year) or Last 10 if unavailable</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t>13/15</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>15/42</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>21/31</t>
+  </si>
+  <si>
+    <t>8/11</t>
+  </si>
+  <si>
+    <t>12/12</t>
+  </si>
+  <si>
+    <t>43/48</t>
+  </si>
+  <si>
+    <t>20/32</t>
+  </si>
+  <si>
+    <t>Stanislas Wawrinka</t>
+  </si>
+  <si>
+    <t>24/34</t>
+  </si>
+  <si>
+    <t>11/15</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>27/34</t>
+  </si>
+  <si>
+    <t>11/16</t>
+  </si>
+  <si>
+    <t>15/17</t>
+  </si>
+  <si>
+    <t>6/7</t>
+  </si>
+  <si>
+    <t>32/44</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <t>14/47</t>
   </si>
 </sst>
 </file>
@@ -117,8 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,178 +500,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1">
+        <v>175.6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1">
+        <v>170.1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="P3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L4" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="M4" s="1">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N4" s="1">
+        <v>180.4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>27</v>
+      </c>
+      <c r="R4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="L5" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1">
+        <v>198.6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>18</v>
+      </c>
+      <c r="P5" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>29</v>
+      </c>
+      <c r="R5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H6" s="1">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K6" s="1">
+        <v>69.2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>182.8</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>32</v>
+      </c>
+      <c r="R6" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
+      <c r="F7" s="1">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="L7" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1">
+        <v>182.1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1">
+        <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>44</v>
-      </c>
-      <c r="C2">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>46</v>
-      </c>
-      <c r="F2">
-        <v>38</v>
-      </c>
-      <c r="G2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>39</v>
-      </c>
-      <c r="I2">
+      <c r="J8">
         <v>8</v>
       </c>
-      <c r="J2">
-        <v>44</v>
-      </c>
-      <c r="K2">
-        <v>67.2</v>
-      </c>
-      <c r="L2">
-        <v>42.6</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>175.6</v>
-      </c>
-      <c r="O2">
-        <v>14.3</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3">
-        <v>170.1</v>
-      </c>
-      <c r="O3">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>180.4</v>
-      </c>
-      <c r="O4">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5">
-        <v>198.6</v>
-      </c>
-      <c r="O5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6">
-        <v>182.8</v>
-      </c>
-      <c r="O6">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7">
-        <v>182.1</v>
-      </c>
-      <c r="O7">
-        <v>18.8</v>
+      <c r="K8" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>29</v>
+      </c>
+      <c r="R8">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
